--- a/medicine/Enfance/Godi_(auteur)/Godi_(auteur).xlsx
+++ b/medicine/Enfance/Godi_(auteur)/Godi_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Godi, de son véritable nom Bernard Godisiabois, né le 17 décembre 1951 à Etterbeek (région de Bruxelles-Capitale), est un auteur et coloriste de bande dessinée belge. Il est surtout connu pour avoir créé la série humoristique L'Élève Ducobu avec le scénariste Zidrou.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Godisiabois naît le 17 décembre 1951 à Etterbeek, une commune bruxelloise[1].
-Godi suit les cours de dessin à Institut Saint-Luc de Bruxelles dont il sort diplômé[2]. Le soir, il rejoint l'atelier d'Eddy Paape[3]. En 1969, il publie des dessins dans une revue d’étudiants appelée Réveil[4]. En 1970, il devient son assistant sur la série Tommy Banco[5]. Il commence sa carrière professionnelle en 1971 en dessinant des cartes postales. Il publie des pages de jeux dans Junior et des cartoons dans Tintin[6].
-En 1972, il collabore ensuite régulièrement à Tintin[7] en dessinant notamment Le Comte Lombardi[8] sur un scénario de Christian Blareau et Red Retro[5] sur un scénario de Vicq[6] de 1977 jusqu'en 1982.
-En 1975, Michel Greg[Note 1] lui propose de dessiner des histoires d’Arsène Talon, dans un style graphique « début de siècle » pour Achille Talon magazine[4]. 
-Son fox-terrier lui donne un jour l'idée de créer le personnage de Diogène Terrier qui fait l'objet de cinq albums parus chez Casterman de 1981 à 1990[9].
-En 1987, il collabore à la réalisation de la série animée La Bande à Ovide[5] (65 épisodes).
-Illustrateur de publicités[6] et d’illustrations pour enfants chez Milan avec L’ABC en BD, Do Ré Mi[6], il collabore également depuis les années 1990 pour le journal Spirou[10] (dans lequel il anime, en 1997, avec Zidrou la série Suivez le guide[5],[6]) et pour les nombreuses revues du groupe Averbode. C'est dans l'une de ces dernières (Tremplin[6]) et toujours avec Zidrou au scénario qu'apparaît en septembre 1992 le personnage de Ducobu. Présent d'abord de manière épisodique, cet anti-héros rondouillard va s'imposer grâce au soutien des nombreux lecteurs et accéder à la pleine page en septembre 1995. Le premier album (édité par les éditions du Lombard) sort en juin 1997. Depuis, Godi s'est de plus en plus investi dans cette création à succès (3 millions de livres vendus en août 2017[11]), délaissant la majorité de ses activités secondaires. Il est également le coauteur (avec Bob de Groot) de la série Le Bar des acariens[6]. En septembre 2014, a été publiée sa reprise, avec Zidrou au scénario, des aventures de Chlorophylle[12].
-En 2019, il participe au cadavre exquis pour l'anniversaire des 90 ans de Mickey Mouse[13]. En 2023, il contribue au Tintin numéro spécial 77 ans[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Godisiabois naît le 17 décembre 1951 à Etterbeek, une commune bruxelloise.
+Godi suit les cours de dessin à Institut Saint-Luc de Bruxelles dont il sort diplômé. Le soir, il rejoint l'atelier d'Eddy Paape. En 1969, il publie des dessins dans une revue d’étudiants appelée Réveil. En 1970, il devient son assistant sur la série Tommy Banco. Il commence sa carrière professionnelle en 1971 en dessinant des cartes postales. Il publie des pages de jeux dans Junior et des cartoons dans Tintin.
+En 1972, il collabore ensuite régulièrement à Tintin en dessinant notamment Le Comte Lombardi sur un scénario de Christian Blareau et Red Retro sur un scénario de Vicq de 1977 jusqu'en 1982.
+En 1975, Michel Greg[Note 1] lui propose de dessiner des histoires d’Arsène Talon, dans un style graphique « début de siècle » pour Achille Talon magazine. 
+Son fox-terrier lui donne un jour l'idée de créer le personnage de Diogène Terrier qui fait l'objet de cinq albums parus chez Casterman de 1981 à 1990.
+En 1987, il collabore à la réalisation de la série animée La Bande à Ovide (65 épisodes).
+Illustrateur de publicités et d’illustrations pour enfants chez Milan avec L’ABC en BD, Do Ré Mi, il collabore également depuis les années 1990 pour le journal Spirou (dans lequel il anime, en 1997, avec Zidrou la série Suivez le guide,) et pour les nombreuses revues du groupe Averbode. C'est dans l'une de ces dernières (Tremplin) et toujours avec Zidrou au scénario qu'apparaît en septembre 1992 le personnage de Ducobu. Présent d'abord de manière épisodique, cet anti-héros rondouillard va s'imposer grâce au soutien des nombreux lecteurs et accéder à la pleine page en septembre 1995. Le premier album (édité par les éditions du Lombard) sort en juin 1997. Depuis, Godi s'est de plus en plus investi dans cette création à succès (3 millions de livres vendus en août 2017), délaissant la majorité de ses activités secondaires. Il est également le coauteur (avec Bob de Groot) de la série Le Bar des acariens. En septembre 2014, a été publiée sa reprise, avec Zidrou au scénario, des aventures de Chlorophylle.
+En 2019, il participe au cadavre exquis pour l'anniversaire des 90 ans de Mickey Mouse. En 2023, il contribue au Tintin numéro spécial 77 ans.
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-L'Élève Ducobu (dessin), avec Zidrou, Le Lombard :
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Élève Ducobu (dessin), avec Zidrou, Le Lombard :
 Un copieur sachant copier ..., 06/1997
 Au coin !, 03/1998
 Les Réponses ou la vie ?!, 01/1999
@@ -561,7 +580,7 @@
 Un amour de potache ..., 03/2001
 Vivement les vacances !, 08/2001
 Punis pour le meilleur et pour le pire ..., 04/2002
-Le Fortiche de la triche ..., 08/2003[16]
+Le Fortiche de la triche ..., 08/2003
 Miss Dix sur Dix ..., 08/2004
 Peut mieux faire!, 08/2005
 280 de Q.I. !, 08/2006
@@ -580,17 +599,7 @@
 25 L'Idole des écoles, Le Lombard, Bruxelles, 7 février 2020Scénario : Zidrou - Dessin : Godi - Couleurs : Laure Godi -  (ISBN 978-2-8036-7714-6)
 26 Votez Ducobu !, Le Lombard, Bruxelles, 1 juillet 2022Scénario : Zidrou - Dessin : Godi - Couleurs : Laure Godi -  (ISBN 978-2-8036-8027-6)
 27 Fini de rire !, Le Lombard, Bruxelles, 24 février 2023Scénario : Zidrou - Dessin : Godi - Couleurs : Laure Godi -  (ISBN 978-2-8082-1098-0)
-28 En vert et contre tous[17] !, Le Lombard, Bruxelles, 29 mars 2024Scénario : Zidrou - Dessin : Godi - Couleurs : Laure Godi -  (ISBN 978-2-8082-1308-0)
-Collectifs
-Il était une fois... Les Belges[18], Le Lombard, Bruxelles, 1980Scénario et couleurs : collectif - Dessin : collectif dont GodiParticipation : Les 60 Matches de l'Union.
-Images du scoutisme - 50 ans de calendrier FSC[19], FSC, Bruxelles, 1991Scénario et couleurs : collectif - Dessin : collectif dont Godi,Préface : Stéphane Steeman. Participation : 1975 (couverture ; février-mars), 1976 (juillet-août ; août), 1977 (janvier), 1985 (mars), 1986 (janvier ; août), 1988 (janvier), 1990 (mars).
-HS01 Boule et Bill font la fête, Dargaud, Bruxelles,  27 juillet 1999Scénario : collectif - Dessin : Roba et ses amis - Couleurs : collectif dont Godi -  (ISBN 2-87129-250-7)
-Carrément Bruxelles - Ronduit Brussel, scénario de Paul Herman, dessins de Michel Pierret, Jean-François Charles, Barly Baruti, Vincent Dutreuil, Jean-Luc Cornette, Jeanlouis Boccar, Étienne Schréder, Olivier Supiot, Éric Gorski, Stéphane Gemine, Isaac Wens, Laurent Siefer, Jean-Marc Dubois, Éric Warnauts, Godi, Hermann, Frédéric Pontarolo, Ersel, Griffo, Benoît Roels, Daniel Hulet, Jean-Yves Delitte, Séraphine, Marc-Renier, Séra, Jacques Denoël et Franckie Alarçon, Glénat, coll. « Carrément 20/20 », 2005  (ISBN 2-87176-218-X)
-9 Mickey All Stars[13], Glénat, coll. « Disney », Grenoble, 5 juin 2019Scénario : collectif - Dessin : collectif dont Godi - Couleurs : quadrichromie -  (ISBN 978-2-344-03497-2)
-Numéro spécial 77 ans - L'hommage des auteurs et autrices d'aujourd'hui aux personnages mythiques du journal Tintin, Éditions Moulinsart-Le Lombard, Bruxelles, 8 septembre 2023Scénario : collectif - Dessin : collectif dont Godi - Couleurs : quadrichromie -  (ISBN 2-85815-201-2)
-Illustration
-Si le tram m'était conté[20], Ateliers d'arts graphiques, Bruxelles, septembre 1984Scénario : Marion - Dessin : Godi - Couleurs : noir et blanc -  (ISBN 2870130597),Format poche, avec un marque-page de Godi.
-Paul Herman et Godi (ill.), Bistrots bruxellois, Bruxelles, Glénat Benelux, coll. « Bacchus et Gambrinus », 1986 (ISBN 9782871760009 et 2-87176-000-4, OCLC 1400566993, présentation en ligne).</t>
+28 En vert et contre tous !, Le Lombard, Bruxelles, 29 mars 2024Scénario : Zidrou - Dessin : Godi - Couleurs : Laure Godi -  (ISBN 978-2-8082-1308-0)</t>
         </is>
       </c>
     </row>
@@ -615,12 +624,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il était une fois... Les Belges, Le Lombard, Bruxelles, 1980Scénario et couleurs : collectif - Dessin : collectif dont GodiParticipation : Les 60 Matches de l'Union.
+Images du scoutisme - 50 ans de calendrier FSC, FSC, Bruxelles, 1991Scénario et couleurs : collectif - Dessin : collectif dont Godi,Préface : Stéphane Steeman. Participation : 1975 (couverture ; février-mars), 1976 (juillet-août ; août), 1977 (janvier), 1985 (mars), 1986 (janvier ; août), 1988 (janvier), 1990 (mars).
+HS01 Boule et Bill font la fête, Dargaud, Bruxelles,  27 juillet 1999Scénario : collectif - Dessin : Roba et ses amis - Couleurs : collectif dont Godi -  (ISBN 2-87129-250-7)
+Carrément Bruxelles - Ronduit Brussel, scénario de Paul Herman, dessins de Michel Pierret, Jean-François Charles, Barly Baruti, Vincent Dutreuil, Jean-Luc Cornette, Jeanlouis Boccar, Étienne Schréder, Olivier Supiot, Éric Gorski, Stéphane Gemine, Isaac Wens, Laurent Siefer, Jean-Marc Dubois, Éric Warnauts, Godi, Hermann, Frédéric Pontarolo, Ersel, Griffo, Benoît Roels, Daniel Hulet, Jean-Yves Delitte, Séraphine, Marc-Renier, Séra, Jacques Denoël et Franckie Alarçon, Glénat, coll. « Carrément 20/20 », 2005  (ISBN 2-87176-218-X)
+9 Mickey All Stars, Glénat, coll. « Disney », Grenoble, 5 juin 2019Scénario : collectif - Dessin : collectif dont Godi - Couleurs : quadrichromie -  (ISBN 978-2-344-03497-2)
+Numéro spécial 77 ans - L'hommage des auteurs et autrices d'aujourd'hui aux personnages mythiques du journal Tintin, Éditions Moulinsart-Le Lombard, Bruxelles, 8 septembre 2023Scénario : collectif - Dessin : collectif dont Godi - Couleurs : quadrichromie -  (ISBN 2-85815-201-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Godi_(auteur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godi_(auteur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Si le tram m'était conté, Ateliers d'arts graphiques, Bruxelles, septembre 1984Scénario : Marion - Dessin : Godi - Couleurs : noir et blanc -  (ISBN 2870130597),Format poche, avec un marque-page de Godi.
+Paul Herman et Godi (ill.), Bistrots bruxellois, Bruxelles, Glénat Benelux, coll. « Bacchus et Gambrinus », 1986 (ISBN 9782871760009 et 2-87176-000-4, OCLC 1400566993, présentation en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Godi_(auteur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godi_(auteur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2004 :  prix Saint-Michel jeunesse pour L'Élève Ducobu, t. 10 : Miss dix sur dix (avec Zidrou)[21].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2004 :  prix Saint-Michel jeunesse pour L'Élève Ducobu, t. 10 : Miss dix sur dix (avec Zidrou).</t>
         </is>
       </c>
     </row>
